--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N2">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O2">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P2">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q2">
-        <v>246.6317086475697</v>
+        <v>346.7891645104996</v>
       </c>
       <c r="R2">
-        <v>2219.685377828127</v>
+        <v>3121.102480594497</v>
       </c>
       <c r="S2">
-        <v>0.04201127831719875</v>
+        <v>0.08156512545913611</v>
       </c>
       <c r="T2">
-        <v>0.04201127831719875</v>
+        <v>0.08156512545913611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.524507</v>
       </c>
       <c r="O3">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P3">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q3">
-        <v>620.4752435260742</v>
+        <v>627.1677378478084</v>
       </c>
       <c r="R3">
-        <v>5584.277191734668</v>
+        <v>5644.509640630276</v>
       </c>
       <c r="S3">
-        <v>0.1056918361699978</v>
+        <v>0.1475104197493756</v>
       </c>
       <c r="T3">
-        <v>0.1056918361699979</v>
+        <v>0.1475104197493756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N4">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O4">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P4">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q4">
-        <v>469.0301456555656</v>
+        <v>216.6259940597432</v>
       </c>
       <c r="R4">
-        <v>4221.271310900091</v>
+        <v>1949.633946537689</v>
       </c>
       <c r="S4">
-        <v>0.07989465789433237</v>
+        <v>0.05095062992563041</v>
       </c>
       <c r="T4">
-        <v>0.07989465789433239</v>
+        <v>0.0509506299256304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N5">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O5">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P5">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q5">
-        <v>78.97641787184499</v>
+        <v>174.8927182519627</v>
       </c>
       <c r="R5">
-        <v>710.787760846605</v>
+        <v>1574.034464267665</v>
       </c>
       <c r="S5">
-        <v>0.01345285360874121</v>
+        <v>0.04113492567233537</v>
       </c>
       <c r="T5">
-        <v>0.01345285360874122</v>
+        <v>0.04113492567233537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N6">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O6">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P6">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q6">
-        <v>402.2748238189279</v>
+        <v>75.29424823266099</v>
       </c>
       <c r="R6">
-        <v>3620.473414370352</v>
+        <v>677.648234093949</v>
       </c>
       <c r="S6">
-        <v>0.06852354742272353</v>
+        <v>0.01770927535212073</v>
       </c>
       <c r="T6">
-        <v>0.06852354742272355</v>
+        <v>0.01770927535212073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N7">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O7">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P7">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q7">
-        <v>100.7388263843109</v>
+        <v>140.1374605016073</v>
       </c>
       <c r="R7">
-        <v>906.6494374587979</v>
+        <v>1261.237144514466</v>
       </c>
       <c r="S7">
-        <v>0.01715986519246358</v>
+        <v>0.03296045758370936</v>
       </c>
       <c r="T7">
-        <v>0.01715986519246358</v>
+        <v>0.03296045758370936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.524507</v>
       </c>
       <c r="O8">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P8">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q8">
         <v>253.4384089381451</v>
@@ -948,10 +948,10 @@
         <v>2280.945680443306</v>
       </c>
       <c r="S8">
-        <v>0.0431707325572768</v>
+        <v>0.05960894323322427</v>
       </c>
       <c r="T8">
-        <v>0.04317073255727683</v>
+        <v>0.05960894323322428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N9">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O9">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P9">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q9">
-        <v>191.5793661378816</v>
+        <v>87.53853866518246</v>
       </c>
       <c r="R9">
-        <v>1724.214295240934</v>
+        <v>787.846847986642</v>
       </c>
       <c r="S9">
-        <v>0.03263365491317319</v>
+        <v>0.02058914354724271</v>
       </c>
       <c r="T9">
-        <v>0.03263365491317321</v>
+        <v>0.02058914354724271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N10">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O10">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P10">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q10">
-        <v>32.25859193886333</v>
+        <v>70.67412683048556</v>
       </c>
       <c r="R10">
-        <v>290.32732744977</v>
+        <v>636.0671414743699</v>
       </c>
       <c r="S10">
-        <v>0.005494932875809219</v>
+        <v>0.01662261861549287</v>
       </c>
       <c r="T10">
-        <v>0.005494932875809221</v>
+        <v>0.01662261861549287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N11">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O11">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P11">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q11">
-        <v>164.3125851809386</v>
+        <v>30.426396835658</v>
       </c>
       <c r="R11">
-        <v>1478.813266628448</v>
+        <v>273.837571520922</v>
       </c>
       <c r="S11">
-        <v>0.02798902778928164</v>
+        <v>0.007156316082346246</v>
       </c>
       <c r="T11">
-        <v>0.02798902778928165</v>
+        <v>0.007156316082346246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N12">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O12">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P12">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q12">
-        <v>205.0832656795792</v>
+        <v>261.262603463253</v>
       </c>
       <c r="R12">
-        <v>1845.749391116213</v>
+        <v>2351.363431169277</v>
       </c>
       <c r="S12">
-        <v>0.03493391097158795</v>
+        <v>0.06144920086917988</v>
       </c>
       <c r="T12">
-        <v>0.03493391097158796</v>
+        <v>0.06144920086917989</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.524507</v>
       </c>
       <c r="O13">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P13">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q13">
-        <v>515.9478070092568</v>
+        <v>472.493067162473</v>
       </c>
       <c r="R13">
-        <v>4643.530263083311</v>
+        <v>4252.437604462257</v>
       </c>
       <c r="S13">
-        <v>0.08788661861962016</v>
+        <v>0.111130797169161</v>
       </c>
       <c r="T13">
-        <v>0.08788661861962022</v>
+        <v>0.111130797169161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N14">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O14">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P14">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q14">
-        <v>390.0156816845699</v>
+        <v>163.200806074061</v>
       </c>
       <c r="R14">
-        <v>3510.14113516113</v>
+        <v>1468.807254666549</v>
       </c>
       <c r="S14">
-        <v>0.06643532350796094</v>
+        <v>0.03838497734279671</v>
       </c>
       <c r="T14">
-        <v>0.06643532350796097</v>
+        <v>0.03838497734279671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N15">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O15">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P15">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q15">
-        <v>65.67177342138834</v>
+        <v>131.759961306085</v>
       </c>
       <c r="R15">
-        <v>591.0459607924951</v>
+        <v>1185.839651754765</v>
       </c>
       <c r="S15">
-        <v>0.0111865386892828</v>
+        <v>0.03099006218833679</v>
       </c>
       <c r="T15">
-        <v>0.0111865386892828</v>
+        <v>0.03099006218833679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N16">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O16">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P16">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q16">
-        <v>334.5061955814987</v>
+        <v>56.72487301280101</v>
       </c>
       <c r="R16">
-        <v>3010.555760233488</v>
+        <v>510.523857115209</v>
       </c>
       <c r="S16">
-        <v>0.05697983020294879</v>
+        <v>0.01334174148858851</v>
       </c>
       <c r="T16">
-        <v>0.05697983020294882</v>
+        <v>0.01334174148858851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N17">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O17">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P17">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q17">
-        <v>42.57674798037957</v>
+        <v>62.192159283177</v>
       </c>
       <c r="R17">
-        <v>383.1907318234161</v>
+        <v>559.729433548593</v>
       </c>
       <c r="S17">
-        <v>0.007252528959287093</v>
+        <v>0.01462765216919955</v>
       </c>
       <c r="T17">
-        <v>0.007252528959287093</v>
+        <v>0.01462765216919955</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.524507</v>
       </c>
       <c r="O18">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P18">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q18">
-        <v>107.1144428935725</v>
+        <v>112.474436462157</v>
       </c>
       <c r="R18">
-        <v>964.0299860421521</v>
+        <v>1012.269928159413</v>
       </c>
       <c r="S18">
-        <v>0.01824588856343679</v>
+        <v>0.02645408928485627</v>
       </c>
       <c r="T18">
-        <v>0.01824588856343679</v>
+        <v>0.02645408928485628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N19">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O19">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P19">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q19">
-        <v>80.97003591421425</v>
+        <v>38.84907519084901</v>
       </c>
       <c r="R19">
-        <v>728.7303232279282</v>
+        <v>349.641676717641</v>
       </c>
       <c r="S19">
-        <v>0.01379244677336485</v>
+        <v>0.009137337656975936</v>
       </c>
       <c r="T19">
-        <v>0.01379244677336486</v>
+        <v>0.009137337656975936</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N20">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O20">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P20">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q20">
-        <v>13.63392833209334</v>
+        <v>31.364750990265</v>
       </c>
       <c r="R20">
-        <v>122.70535498884</v>
+        <v>282.282758912385</v>
       </c>
       <c r="S20">
-        <v>0.002322405180003843</v>
+        <v>0.007377017829050632</v>
       </c>
       <c r="T20">
-        <v>0.002322405180003844</v>
+        <v>0.007377017829050632</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N21">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O21">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P21">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q21">
-        <v>69.44587087569067</v>
+        <v>13.503051301509</v>
       </c>
       <c r="R21">
-        <v>625.0128378812161</v>
+        <v>121.527461713581</v>
       </c>
       <c r="S21">
-        <v>0.01182941895564586</v>
+        <v>0.003175929891129533</v>
       </c>
       <c r="T21">
-        <v>0.01182941895564586</v>
+        <v>0.003175929891129533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N22">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O22">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P22">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q22">
-        <v>201.6499557846938</v>
+        <v>212.9868052410047</v>
       </c>
       <c r="R22">
-        <v>1814.849602062244</v>
+        <v>1916.881247169042</v>
       </c>
       <c r="S22">
-        <v>0.03434908050378571</v>
+        <v>0.05009468942071619</v>
       </c>
       <c r="T22">
-        <v>0.03434908050378572</v>
+        <v>0.0500946894207162</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.524507</v>
       </c>
       <c r="O23">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P23">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q23">
-        <v>507.3102972388742</v>
+        <v>385.1863509720135</v>
       </c>
       <c r="R23">
-        <v>4565.792675149868</v>
+        <v>3466.677158748122</v>
       </c>
       <c r="S23">
-        <v>0.08641530404729321</v>
+        <v>0.09059617847785406</v>
       </c>
       <c r="T23">
-        <v>0.08641530404729325</v>
+        <v>0.09059617847785408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N24">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O24">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P24">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q24">
-        <v>383.4864083445391</v>
+        <v>133.0447520529283</v>
       </c>
       <c r="R24">
-        <v>3451.377675100852</v>
+        <v>1197.402768476354</v>
       </c>
       <c r="S24">
-        <v>0.06532312621183357</v>
+        <v>0.03129224613518221</v>
       </c>
       <c r="T24">
-        <v>0.0653231262118336</v>
+        <v>0.0312922461351822</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N25">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O25">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P25">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q25">
-        <v>64.57235875800667</v>
+        <v>107.4135097991878</v>
       </c>
       <c r="R25">
-        <v>581.15122882206</v>
+        <v>966.72158819269</v>
       </c>
       <c r="S25">
-        <v>0.01099926424812269</v>
+        <v>0.02526375475180579</v>
       </c>
       <c r="T25">
-        <v>0.01099926424812269</v>
+        <v>0.02526375475180579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N26">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O26">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P26">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q26">
-        <v>328.9062095105493</v>
+        <v>46.243317338746</v>
       </c>
       <c r="R26">
-        <v>2960.155885594944</v>
+        <v>416.189856048714</v>
       </c>
       <c r="S26">
-        <v>0.05602592782482728</v>
+        <v>0.01087647010455329</v>
       </c>
       <c r="T26">
-        <v>0.05602592782482731</v>
+        <v>0.01087647010455329</v>
       </c>
     </row>
   </sheetData>
